--- a/emission/emission-data/BWER_PM10.xlsx
+++ b/emission/emission-data/BWER_PM10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 东南大学\5 我的代码\onroad-NEE-modelling\emission\emission-data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - 东南大学\5 我的代码\brake-wear-emission-modeling\emission\emission-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D4F6249-B56D-4D65-BFCA-9A4BBCF4EB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860B3C5C-28CF-486A-B9C9-D454D04F2AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2328" yWindow="2796" windowWidth="23040" windowHeight="12168" xr2:uid="{E4B3D90E-EAE4-42AB-9D93-5042804D357E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{E4B3D90E-EAE4-42AB-9D93-5042804D357E}"/>
   </bookViews>
   <sheets>
     <sheet name="BWER_PM10" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="16">
   <si>
     <t>Material</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PM10ER[g/hr]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LM</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -55,9 +51,6 @@
     <t>Farwick Zum Hagen et al., 2019</t>
   </si>
   <si>
-    <t>Kim et al., 2020</t>
-  </si>
-  <si>
     <t>Author, Year</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,6 +75,10 @@
   </si>
   <si>
     <t>SM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PM10ER[g/hr/brake]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -486,453 +483,425 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6577343-0F7D-490C-9595-CFDC6FAE482C}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="B2" s="1">
         <v>0.97</v>
       </c>
       <c r="C2" s="2">
-        <v>2.8228704784130687</v>
+        <v>0.84686114352392072</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>1.07</v>
       </c>
       <c r="C3" s="2">
-        <v>1.4900943396226418</v>
+        <v>0.49669811320754725</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="1">
         <v>1.07</v>
       </c>
       <c r="C4" s="2">
-        <v>3.5150943396226411</v>
+        <v>1.171698113207547</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
         <v>1.2</v>
       </c>
       <c r="C5" s="2">
-        <v>5.5200000000000014</v>
+        <v>1.8400000000000003</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" s="1">
         <v>1.2</v>
       </c>
       <c r="C6" s="2">
-        <v>5.6</v>
+        <v>1.8666666666666667</v>
       </c>
       <c r="D6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="C7" s="2">
+        <v>29.413854351687391</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2.57</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.57411049723756902</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" s="1">
         <v>2.84</v>
       </c>
       <c r="C8" s="2">
-        <v>88.241563055062173</v>
+        <v>10.550621669626999</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" s="1">
         <v>2.84</v>
       </c>
       <c r="C9" s="2">
-        <v>31.651865008880996</v>
+        <v>21.420959147424515</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>2.84</v>
-      </c>
-      <c r="C10" s="2">
-        <v>64.262877442273549</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="4">
         <v>7.9</v>
       </c>
-      <c r="C11" s="5">
-        <v>1481.1428571428573</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>822.857142857143</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.1218035264483629E-2</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.0689887640449434E-2</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2.9035239206534415E-2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="C14" s="2">
+        <v>6.597169811320755E-2</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.97</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.88718786464410748</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="C12" s="2">
-        <v>3.3654105793450885E-2</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.82</v>
-      </c>
-      <c r="C13" s="2">
-        <v>6.2069662921348301E-2</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="C14" s="2">
-        <v>8.7105717619603243E-2</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1.07</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0.19791509433962265</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B16" s="1">
         <v>0.97</v>
       </c>
       <c r="C16" s="2">
-        <v>2.6615635939323226</v>
+        <v>1.5727421236872814</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>5.7628800000000001E-2</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17" s="1">
-        <v>0.97</v>
-      </c>
-      <c r="C17" s="2">
-        <v>4.7182263710618439</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="C18" s="2">
-        <v>0.14407200000000003</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>1.2</v>
       </c>
       <c r="C19" s="2">
-        <v>0.89999999999999991</v>
+        <v>0.4</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="1">
+        <v>2.57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>8.3028729281767952E-2</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5.7548845470692722</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1.2000000000000002</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <v>2.57</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0.24908618784530384</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B22" s="1">
-        <v>2.57</v>
+        <v>2.94</v>
       </c>
       <c r="C22" s="2">
-        <v>0.33623204419889502</v>
+        <v>1.6391489361702127</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B23" s="1">
-        <v>2.84</v>
+        <v>2.94</v>
       </c>
       <c r="C23" s="2">
-        <v>17.264653641207815</v>
+        <v>0.6817021276595745</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B24" s="1">
         <v>2.94</v>
       </c>
       <c r="C24" s="2">
-        <v>4.917446808510638</v>
+        <v>1.0799999999999998</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" s="4">
+        <v>7.9</v>
+      </c>
+      <c r="C25" s="5">
+        <v>565.71428571428578</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1.2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.45333333333333337</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="1">
         <v>2.94</v>
       </c>
-      <c r="C25" s="2">
-        <v>2.0451063829787235</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B26" s="1">
+      <c r="C27" s="2">
+        <v>1.4170212765957446</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="1">
         <v>2.94</v>
       </c>
-      <c r="C26" s="2">
-        <v>3.2399999999999993</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B27" s="4">
+      <c r="C28" s="2">
+        <v>0.62808510638297865</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="1">
         <v>7.9</v>
       </c>
-      <c r="C27" s="5">
-        <v>1018.2857142857144</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="1">
-        <v>1.2</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.36</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.94</v>
-      </c>
       <c r="C29" s="2">
-        <v>4.2510638297872338</v>
+        <v>524.57142857142867</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.94</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1.884255319148936</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" s="1">
-        <v>7.9</v>
-      </c>
-      <c r="C31" s="2">
-        <v>944.22857142857163</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
